--- a/Exos/04-tp-complet/00-tp-tierce/00-tp-tierce.xlsx
+++ b/Exos/04-tp-complet/00-tp-tierce/00-tp-tierce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\04-tp-complet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\04-tp-complet\00-tp-tierce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB8738-E80E-4435-9966-9DDF22198E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FF327-3D0B-4A4A-BED7-E52812569347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10680" yWindow="3480" windowWidth="21600" windowHeight="12735" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="7230" yWindow="3345" windowWidth="21600" windowHeight="12735" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Classement du cheval sur la course</t>
+  </si>
+  <si>
+    <t>→</t>
   </si>
 </sst>
 </file>
@@ -230,15 +233,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,7 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,249 +570,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="C4:I14"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="8" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -816,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9473B4C0-DC07-794D-836D-FCE9B2D5E845}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J4" sqref="H1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,191 +835,112 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
+      <c r="F5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
